--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +543,10 @@
         <v>1.013966</v>
       </c>
       <c r="I2">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J2">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5901906666666666</v>
+        <v>0.293221</v>
       </c>
       <c r="N2">
-        <v>1.770572</v>
+        <v>0.879663</v>
       </c>
       <c r="O2">
-        <v>0.05042357210835777</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="P2">
-        <v>0.05042357210835777</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="Q2">
-        <v>0.1994777565057778</v>
+        <v>0.09910537482866667</v>
       </c>
       <c r="R2">
-        <v>1.795299808552</v>
+        <v>0.8919483734579999</v>
       </c>
       <c r="S2">
-        <v>0.02994862748540906</v>
+        <v>0.01218391931101924</v>
       </c>
       <c r="T2">
-        <v>0.02994862748540907</v>
+        <v>0.01218391931101924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>1.013966</v>
       </c>
       <c r="I3">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J3">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>32.229328</v>
       </c>
       <c r="O3">
-        <v>0.9178490591808264</v>
+        <v>0.9569854715114954</v>
       </c>
       <c r="P3">
-        <v>0.9178490591808263</v>
+        <v>0.9569854715114955</v>
       </c>
       <c r="Q3">
         <v>3.631049199427555</v>
@@ -632,10 +635,10 @@
         <v>32.67944279484799</v>
       </c>
       <c r="S3">
-        <v>0.5451481997778479</v>
+        <v>0.4463976907069786</v>
       </c>
       <c r="T3">
-        <v>0.5451481997778479</v>
+        <v>0.4463976907069787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +667,10 @@
         <v>1.013966</v>
       </c>
       <c r="I4">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J4">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.371358</v>
+        <v>0.183427</v>
       </c>
       <c r="N4">
-        <v>1.114074</v>
+        <v>0.550281</v>
       </c>
       <c r="O4">
-        <v>0.03172736871081582</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="P4">
-        <v>0.03172736871081581</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="Q4">
-        <v>0.125514795276</v>
+        <v>0.06199624716066666</v>
       </c>
       <c r="R4">
-        <v>1.129633157484</v>
+        <v>0.557966224446</v>
       </c>
       <c r="S4">
-        <v>0.01884418550455989</v>
+        <v>0.007621758903565316</v>
       </c>
       <c r="T4">
-        <v>0.01884418550455989</v>
+        <v>0.007621758903565317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2310723333333333</v>
+        <v>0.3379886666666667</v>
       </c>
       <c r="H5">
-        <v>0.693217</v>
+        <v>1.013966</v>
       </c>
       <c r="I5">
-        <v>0.406058987232183</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J5">
-        <v>0.4060589872321831</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5901906666666666</v>
+        <v>0.006232666666666667</v>
       </c>
       <c r="N5">
-        <v>1.770572</v>
+        <v>0.018698</v>
       </c>
       <c r="O5">
-        <v>0.05042357210835777</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="P5">
-        <v>0.05042357210835777</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="Q5">
-        <v>0.1363767344582222</v>
+        <v>0.002106570696444445</v>
       </c>
       <c r="R5">
-        <v>1.227390610124</v>
+        <v>0.018959136268</v>
       </c>
       <c r="S5">
-        <v>0.02047494462294871</v>
+        <v>0.0002589797721143639</v>
       </c>
       <c r="T5">
-        <v>0.02047494462294871</v>
+        <v>0.0002589797721143639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H6">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I6">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J6">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.74310933333333</v>
+        <v>0.293221</v>
       </c>
       <c r="N6">
-        <v>32.229328</v>
+        <v>0.879663</v>
       </c>
       <c r="O6">
-        <v>0.9178490591808264</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="P6">
-        <v>0.9178490591808263</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="Q6">
-        <v>2.482435340908444</v>
+        <v>0.11335630639</v>
       </c>
       <c r="R6">
-        <v>22.341918068176</v>
+        <v>1.02020675751</v>
       </c>
       <c r="S6">
-        <v>0.3727008594029784</v>
+        <v>0.01393591510892947</v>
       </c>
       <c r="T6">
-        <v>0.3727008594029784</v>
+        <v>0.01393591510892947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H7">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I7">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J7">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.371358</v>
+        <v>10.74310933333333</v>
       </c>
       <c r="N7">
-        <v>1.114074</v>
+        <v>32.229328</v>
       </c>
       <c r="O7">
-        <v>0.03172736871081582</v>
+        <v>0.9569854715114954</v>
       </c>
       <c r="P7">
-        <v>0.03172736871081581</v>
+        <v>0.9569854715114955</v>
       </c>
       <c r="Q7">
-        <v>0.085810559562</v>
+        <v>4.153178637173332</v>
       </c>
       <c r="R7">
-        <v>0.772295036058</v>
+        <v>37.37860773455999</v>
       </c>
       <c r="S7">
-        <v>0.01288318320625592</v>
+        <v>0.5105877808045167</v>
       </c>
       <c r="T7">
-        <v>0.01288318320625592</v>
+        <v>0.5105877808045167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.38659</v>
+      </c>
+      <c r="H8">
+        <v>1.15977</v>
+      </c>
+      <c r="I8">
+        <v>0.5335376513063224</v>
+      </c>
+      <c r="J8">
+        <v>0.5335376513063224</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.183427</v>
+      </c>
+      <c r="N8">
+        <v>0.550281</v>
+      </c>
+      <c r="O8">
+        <v>0.01633949433413</v>
+      </c>
+      <c r="P8">
+        <v>0.01633949433413</v>
+      </c>
+      <c r="Q8">
+        <v>0.07091104393</v>
+      </c>
+      <c r="R8">
+        <v>0.63819939537</v>
+      </c>
+      <c r="S8">
+        <v>0.00871773543056468</v>
+      </c>
+      <c r="T8">
+        <v>0.008717735430564682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.38659</v>
+      </c>
+      <c r="H9">
+        <v>1.15977</v>
+      </c>
+      <c r="I9">
+        <v>0.5335376513063224</v>
+      </c>
+      <c r="J9">
+        <v>0.5335376513063224</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.006232666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.018698</v>
+      </c>
+      <c r="O9">
+        <v>0.0005551997344257983</v>
+      </c>
+      <c r="P9">
+        <v>0.0005551997344257983</v>
+      </c>
+      <c r="Q9">
+        <v>0.002409486606666667</v>
+      </c>
+      <c r="R9">
+        <v>0.02168537946</v>
+      </c>
+      <c r="S9">
+        <v>0.0002962199623114343</v>
+      </c>
+      <c r="T9">
+        <v>0.0002962199623114343</v>
       </c>
     </row>
   </sheetData>
